--- a/output/1Y_P15_KFSDIV.xlsx
+++ b/output/1Y_P15_KFSDIV.xlsx
@@ -727,16 +727,16 @@
         <v>10.8505</v>
       </c>
       <c r="C2" s="1">
-        <v>10.8505</v>
+        <v>10.8288</v>
       </c>
       <c r="D2" s="1">
-        <v>10.8505</v>
+        <v>10.8723</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>921.6165</v>
+        <v>919.7686</v>
       </c>
       <c r="H2" s="1">
         <v>0</v>
@@ -771,31 +771,31 @@
         <v>11.8576</v>
       </c>
       <c r="C3" s="1">
-        <v>11.8576</v>
+        <v>11.8339</v>
       </c>
       <c r="D3" s="1">
-        <v>11.8576</v>
+        <v>11.8814</v>
       </c>
       <c r="E3" s="1">
-        <v>921.6165</v>
+        <v>919.7686</v>
       </c>
       <c r="F3" s="1">
-        <v>843.341</v>
+        <v>841.6517</v>
       </c>
       <c r="H3" s="1">
-        <v>10928.16</v>
+        <v>10884.4495</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10928.16</v>
+        <v>10884.4495</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>10.8505</v>
+        <v>10.8723</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -810,7 +810,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.09279999999999999</v>
+        <v>0.08840000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -821,31 +821,31 @@
         <v>12.5699</v>
       </c>
       <c r="C4" s="1">
-        <v>12.5699</v>
+        <v>12.5448</v>
       </c>
       <c r="D4" s="1">
-        <v>12.5699</v>
+        <v>12.5951</v>
       </c>
       <c r="E4" s="1">
-        <v>1764.9575</v>
+        <v>1761.4202</v>
       </c>
       <c r="F4" s="1">
-        <v>795.5513</v>
+        <v>793.9596</v>
       </c>
       <c r="H4" s="1">
-        <v>22185.3392</v>
+        <v>22096.6647</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>22185.3392</v>
+        <v>22096.6647</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>11.3317</v>
+        <v>11.3545</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -860,7 +860,7 @@
         <v>-10000</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0601</v>
+        <v>0.058</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -871,46 +871,46 @@
         <v>13.5994</v>
       </c>
       <c r="C5" s="1">
-        <v>13.5994</v>
+        <v>13.5722</v>
       </c>
       <c r="D5" s="1">
-        <v>13.5994</v>
+        <v>13.6266</v>
       </c>
       <c r="E5" s="1">
-        <v>2560.5088</v>
+        <v>2555.3798</v>
       </c>
       <c r="F5" s="1">
-        <v>735.3266</v>
+        <v>733.8588</v>
       </c>
       <c r="H5" s="1">
-        <v>34821.383</v>
+        <v>34682.1257</v>
       </c>
       <c r="I5" s="1">
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>34821.383</v>
+        <v>34682.1257</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>11.7164</v>
+        <v>11.7399</v>
       </c>
       <c r="M5" s="1">
         <v>0.5</v>
       </c>
       <c r="N5" s="1">
-        <v>794.2309</v>
+        <v>792.6391</v>
       </c>
       <c r="O5" s="1">
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-9205.7691</v>
+        <v>-9207.3609</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0819</v>
+        <v>0.0806</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -921,31 +921,31 @@
         <v>14.6663</v>
       </c>
       <c r="C6" s="1">
-        <v>14.6663</v>
+        <v>14.637</v>
       </c>
       <c r="D6" s="1">
-        <v>14.6663</v>
+        <v>14.6957</v>
       </c>
       <c r="E6" s="1">
-        <v>3295.8353</v>
+        <v>3289.2386</v>
       </c>
       <c r="F6" s="1">
-        <v>688.6044000000001</v>
+        <v>687.2133</v>
       </c>
       <c r="H6" s="1">
-        <v>48337.7097</v>
+        <v>48144.585</v>
       </c>
       <c r="I6" s="1">
-        <v>794.2309</v>
+        <v>792.6391</v>
       </c>
       <c r="J6" s="1">
-        <v>49131.9406</v>
+        <v>48937.2241</v>
       </c>
       <c r="K6" s="1">
         <v>40000</v>
       </c>
       <c r="L6" s="1">
-        <v>12.1365</v>
+        <v>12.1609</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -957,10 +957,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-10099.2789</v>
+        <v>-10099.0799</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.09619999999999999</v>
+        <v>0.09520000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -971,31 +971,31 @@
         <v>14.701</v>
       </c>
       <c r="C7" s="1">
-        <v>14.701</v>
+        <v>14.6716</v>
       </c>
       <c r="D7" s="1">
-        <v>14.701</v>
+        <v>14.7305</v>
       </c>
       <c r="E7" s="1">
-        <v>3984.4397</v>
+        <v>3976.4518</v>
       </c>
       <c r="F7" s="1">
-        <v>686.979</v>
+        <v>685.5898</v>
       </c>
       <c r="H7" s="1">
-        <v>58575.2486</v>
+        <v>58340.9107</v>
       </c>
       <c r="I7" s="1">
-        <v>694.952</v>
+        <v>693.5592</v>
       </c>
       <c r="J7" s="1">
-        <v>59270.2006</v>
+        <v>59034.47</v>
       </c>
       <c r="K7" s="1">
-        <v>50099.2789</v>
+        <v>50099.0799</v>
       </c>
       <c r="L7" s="1">
-        <v>12.5737</v>
+        <v>12.5989</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -1007,10 +1007,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-10099.2789</v>
+        <v>-10099.0799</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0023</v>
+        <v>0.0016</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1021,46 +1021,46 @@
         <v>13.8109</v>
       </c>
       <c r="C8" s="1">
-        <v>13.8109</v>
+        <v>13.7833</v>
       </c>
       <c r="D8" s="1">
-        <v>13.8109</v>
+        <v>13.8386</v>
       </c>
       <c r="E8" s="1">
-        <v>4671.4188</v>
+        <v>4662.0416</v>
       </c>
       <c r="F8" s="1">
-        <v>731.2542</v>
+        <v>729.7761</v>
       </c>
       <c r="H8" s="1">
-        <v>64516.4976</v>
+        <v>64258.3178</v>
       </c>
       <c r="I8" s="1">
-        <v>595.6732</v>
+        <v>594.4793</v>
       </c>
       <c r="J8" s="1">
-        <v>65112.1708</v>
+        <v>64852.7972</v>
       </c>
       <c r="K8" s="1">
-        <v>60198.5577</v>
+        <v>60198.1598</v>
       </c>
       <c r="L8" s="1">
-        <v>12.8866</v>
+        <v>12.9124</v>
       </c>
       <c r="M8" s="1">
         <v>1</v>
       </c>
       <c r="N8" s="1">
-        <v>3585.9958</v>
+        <v>3578.8067</v>
       </c>
       <c r="O8" s="1">
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-6513.2831</v>
+        <v>-6520.2732</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.06</v>
+        <v>-0.0606</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1071,31 +1071,31 @@
         <v>13.9322</v>
       </c>
       <c r="C9" s="1">
-        <v>13.9322</v>
+        <v>13.9043</v>
       </c>
       <c r="D9" s="1">
-        <v>13.9322</v>
+        <v>13.9601</v>
       </c>
       <c r="E9" s="1">
-        <v>5402.673</v>
+        <v>5391.8177</v>
       </c>
       <c r="F9" s="1">
-        <v>776.3654</v>
+        <v>774.6965</v>
       </c>
       <c r="H9" s="1">
-        <v>75271.1207</v>
+        <v>74969.45110000001</v>
       </c>
       <c r="I9" s="1">
-        <v>4082.3901</v>
+        <v>4074.2061</v>
       </c>
       <c r="J9" s="1">
-        <v>79353.5108</v>
+        <v>79043.6571</v>
       </c>
       <c r="K9" s="1">
-        <v>70297.8366</v>
+        <v>70297.23970000001</v>
       </c>
       <c r="L9" s="1">
-        <v>13.0117</v>
+        <v>13.0378</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -1107,10 +1107,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-10816.478</v>
+        <v>-10814.8412</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0565</v>
+        <v>0.056</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1121,31 +1121,31 @@
         <v>12.5846</v>
       </c>
       <c r="C10" s="1">
-        <v>12.5846</v>
+        <v>12.5594</v>
       </c>
       <c r="D10" s="1">
-        <v>12.5846</v>
+        <v>12.6098</v>
       </c>
       <c r="E10" s="1">
-        <v>6179.0384</v>
+        <v>6166.5143</v>
       </c>
       <c r="F10" s="1">
-        <v>859.5011</v>
+        <v>857.6537</v>
       </c>
       <c r="H10" s="1">
-        <v>77760.72659999999</v>
+        <v>77447.71920000001</v>
       </c>
       <c r="I10" s="1">
-        <v>3265.912</v>
+        <v>3259.3649</v>
       </c>
       <c r="J10" s="1">
-        <v>81026.63860000001</v>
+        <v>80707.08409999999</v>
       </c>
       <c r="K10" s="1">
-        <v>81114.3146</v>
+        <v>81112.0809</v>
       </c>
       <c r="L10" s="1">
-        <v>13.1273</v>
+        <v>13.1536</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -1157,10 +1157,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-10816.478</v>
+        <v>-10814.8412</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.09320000000000001</v>
+        <v>-0.0936</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1171,46 +1171,46 @@
         <v>12.2867</v>
       </c>
       <c r="C11" s="1">
-        <v>12.2867</v>
+        <v>12.2621</v>
       </c>
       <c r="D11" s="1">
-        <v>12.2867</v>
+        <v>12.3113</v>
       </c>
       <c r="E11" s="1">
-        <v>7038.5395</v>
+        <v>7024.1679</v>
       </c>
       <c r="F11" s="1">
-        <v>880.3404</v>
+        <v>878.4484</v>
       </c>
       <c r="H11" s="1">
-        <v>86480.4237</v>
+        <v>86131.04949999999</v>
       </c>
       <c r="I11" s="1">
-        <v>2449.434</v>
+        <v>2444.5237</v>
       </c>
       <c r="J11" s="1">
-        <v>88929.85769999999</v>
+        <v>88575.5732</v>
       </c>
       <c r="K11" s="1">
-        <v>91930.7926</v>
+        <v>91926.9221</v>
       </c>
       <c r="L11" s="1">
-        <v>13.0611</v>
+        <v>13.0872</v>
       </c>
       <c r="M11" s="1">
         <v>0.5</v>
       </c>
       <c r="N11" s="1">
-        <v>2780.5673</v>
+        <v>2774.9314</v>
       </c>
       <c r="O11" s="1">
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-8035.9107</v>
+        <v>-8039.9098</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.023</v>
+        <v>-0.0235</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1221,31 +1221,31 @@
         <v>13.0645</v>
       </c>
       <c r="C12" s="1">
-        <v>13.0645</v>
+        <v>13.0384</v>
       </c>
       <c r="D12" s="1">
-        <v>13.0645</v>
+        <v>13.0907</v>
       </c>
       <c r="E12" s="1">
-        <v>7918.8799</v>
+        <v>7902.6163</v>
       </c>
       <c r="F12" s="1">
-        <v>934.3459</v>
+        <v>932.1356</v>
       </c>
       <c r="H12" s="1">
-        <v>103456.2065</v>
+        <v>103037.4721</v>
       </c>
       <c r="I12" s="1">
-        <v>4413.5233</v>
+        <v>4404.6139</v>
       </c>
       <c r="J12" s="1">
-        <v>107869.7298</v>
+        <v>107442.086</v>
       </c>
       <c r="K12" s="1">
-        <v>102747.2706</v>
+        <v>102741.7633</v>
       </c>
       <c r="L12" s="1">
-        <v>12.975</v>
+        <v>13.001</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-12206.7617</v>
+        <v>-12202.3069</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.09039999999999999</v>
+        <v>0.08989999999999999</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1271,31 +1271,31 @@
         <v>13.8083</v>
       </c>
       <c r="C13" s="1">
-        <v>13.8083</v>
+        <v>13.7807</v>
       </c>
       <c r="D13" s="1">
-        <v>13.8083</v>
+        <v>13.836</v>
       </c>
       <c r="E13" s="1">
-        <v>8853.2258</v>
+        <v>8834.7518</v>
       </c>
       <c r="F13" s="1">
-        <v>884.0163</v>
+        <v>881.9245</v>
       </c>
       <c r="H13" s="1">
-        <v>122247.9975</v>
+        <v>121749.0646</v>
       </c>
       <c r="I13" s="1">
-        <v>2206.7617</v>
+        <v>2202.3069</v>
       </c>
       <c r="J13" s="1">
-        <v>124454.7591</v>
+        <v>123951.3716</v>
       </c>
       <c r="K13" s="1">
-        <v>114954.0323</v>
+        <v>114944.0702</v>
       </c>
       <c r="L13" s="1">
-        <v>12.9844</v>
+        <v>13.0104</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -1307,10 +1307,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-12206.7617</v>
+        <v>-12202.3069</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0559</v>
+        <v>0.0554</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1321,46 +1321,46 @@
         <v>13.5636</v>
       </c>
       <c r="C14" s="1">
-        <v>13.5636</v>
+        <v>13.5365</v>
       </c>
       <c r="D14" s="1">
-        <v>13.5636</v>
+        <v>13.5908</v>
       </c>
       <c r="E14" s="1">
-        <v>9737.242</v>
+        <v>9716.676299999999</v>
       </c>
       <c r="F14" s="1">
-        <v>-9737.242</v>
+        <v>-9716.676299999999</v>
       </c>
       <c r="H14" s="1">
-        <v>132072.056</v>
+        <v>131529.7888</v>
       </c>
       <c r="I14" s="1">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J14" s="1">
-        <v>132072.056</v>
+        <v>131529.7888</v>
       </c>
       <c r="K14" s="1">
-        <v>127160.7939</v>
+        <v>127146.3772</v>
       </c>
       <c r="L14" s="1">
-        <v>13.0592</v>
+        <v>13.0854</v>
       </c>
       <c r="M14" s="1">
         <v>0.5</v>
       </c>
       <c r="N14" s="1">
-        <v>3983.9516</v>
+        <v>3975.6383</v>
       </c>
       <c r="O14" s="1">
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>136056.0076</v>
+        <v>135505.4271</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0177</v>
+        <v>-0.0181</v>
       </c>
     </row>
   </sheetData>
@@ -1456,16 +1456,16 @@
         <v>10.8505</v>
       </c>
       <c r="C2" s="1">
-        <v>10.8505</v>
+        <v>10.8288</v>
       </c>
       <c r="D2" s="1">
-        <v>10.8505</v>
+        <v>10.8723</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>921.6165</v>
+        <v>919.7686</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -1503,34 +1503,34 @@
         <v>11.8576</v>
       </c>
       <c r="C3" s="1">
-        <v>11.8576</v>
+        <v>11.8339</v>
       </c>
       <c r="D3" s="1">
-        <v>11.8576</v>
+        <v>11.8814</v>
       </c>
       <c r="E3" s="1">
-        <v>921.6165</v>
+        <v>919.7686</v>
       </c>
       <c r="F3" s="1">
-        <v>765.0654</v>
+        <v>770.2913</v>
       </c>
       <c r="G3" s="1">
         <v>20000</v>
       </c>
       <c r="H3" s="1">
-        <v>10928.16</v>
+        <v>10884.4495</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10928.16</v>
+        <v>10884.4495</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>10.8505</v>
+        <v>10.8723</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -1542,10 +1542,10 @@
         <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>-9071.84</v>
+        <v>-9152.1394</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.09279999999999999</v>
+        <v>0.08840000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1556,34 +1556,34 @@
         <v>12.5699</v>
       </c>
       <c r="C4" s="1">
-        <v>12.5699</v>
+        <v>12.5448</v>
       </c>
       <c r="D4" s="1">
-        <v>12.5699</v>
+        <v>12.5951</v>
       </c>
       <c r="E4" s="1">
-        <v>1686.682</v>
+        <v>1690.0599</v>
       </c>
       <c r="F4" s="1">
-        <v>699.9719</v>
+        <v>701.3692</v>
       </c>
       <c r="G4" s="1">
         <v>30000</v>
       </c>
       <c r="H4" s="1">
-        <v>21201.4236</v>
+        <v>21201.4636</v>
       </c>
       <c r="I4" s="1">
-        <v>928.16</v>
+        <v>847.8606</v>
       </c>
       <c r="J4" s="1">
-        <v>22129.5836</v>
+        <v>22049.3242</v>
       </c>
       <c r="K4" s="1">
-        <v>19071.84</v>
+        <v>19152.1394</v>
       </c>
       <c r="L4" s="1">
-        <v>11.3073</v>
+        <v>11.3322</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -1595,10 +1595,10 @@
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-8798.5764</v>
+        <v>-8833.8153</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0574</v>
+        <v>0.0558</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1609,49 +1609,49 @@
         <v>13.5994</v>
       </c>
       <c r="C5" s="1">
-        <v>13.5994</v>
+        <v>13.5722</v>
       </c>
       <c r="D5" s="1">
-        <v>13.5994</v>
+        <v>13.6266</v>
       </c>
       <c r="E5" s="1">
-        <v>2386.6538</v>
+        <v>2391.4291</v>
       </c>
       <c r="F5" s="1">
-        <v>554.6523999999999</v>
+        <v>555.7718</v>
       </c>
       <c r="G5" s="1">
         <v>40000</v>
       </c>
       <c r="H5" s="1">
-        <v>32457.0601</v>
+        <v>32456.9543</v>
       </c>
       <c r="I5" s="1">
-        <v>2129.5836</v>
+        <v>2014.0454</v>
       </c>
       <c r="J5" s="1">
-        <v>34586.6437</v>
+        <v>34470.9996</v>
       </c>
       <c r="K5" s="1">
-        <v>27870.4164</v>
+        <v>27985.9546</v>
       </c>
       <c r="L5" s="1">
-        <v>11.6776</v>
+        <v>11.7026</v>
       </c>
       <c r="M5" s="1">
         <v>0.5</v>
       </c>
       <c r="N5" s="1">
-        <v>759.0069</v>
+        <v>760.527</v>
       </c>
       <c r="O5" s="1">
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-6783.933</v>
+        <v>-6812.7527</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0765</v>
+        <v>0.0756</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1662,34 +1662,34 @@
         <v>14.6663</v>
       </c>
       <c r="C6" s="1">
-        <v>14.6663</v>
+        <v>14.637</v>
       </c>
       <c r="D6" s="1">
-        <v>14.6663</v>
+        <v>14.6957</v>
       </c>
       <c r="E6" s="1">
-        <v>2941.3062</v>
+        <v>2947.2009</v>
       </c>
       <c r="F6" s="1">
-        <v>467.8699</v>
+        <v>468.7997</v>
       </c>
       <c r="G6" s="1">
         <v>50000</v>
       </c>
       <c r="H6" s="1">
-        <v>43138.0796</v>
+        <v>43138.1795</v>
       </c>
       <c r="I6" s="1">
-        <v>5345.6506</v>
+        <v>5201.2926</v>
       </c>
       <c r="J6" s="1">
-        <v>48483.7302</v>
+        <v>48339.4721</v>
       </c>
       <c r="K6" s="1">
-        <v>35413.3563</v>
+        <v>35559.2344</v>
       </c>
       <c r="L6" s="1">
-        <v>12.04</v>
+        <v>12.0654</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -1701,10 +1701,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-6861.9204</v>
+        <v>-6889.339</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.08740000000000001</v>
+        <v>0.08699999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1715,34 +1715,34 @@
         <v>14.701</v>
       </c>
       <c r="C7" s="1">
-        <v>14.701</v>
+        <v>14.6716</v>
       </c>
       <c r="D7" s="1">
-        <v>14.701</v>
+        <v>14.7305</v>
       </c>
       <c r="E7" s="1">
-        <v>3409.1761</v>
+        <v>3416.0005</v>
       </c>
       <c r="F7" s="1">
-        <v>672.1789</v>
+        <v>673.533</v>
       </c>
       <c r="G7" s="1">
         <v>60000</v>
       </c>
       <c r="H7" s="1">
-        <v>50118.2984</v>
+        <v>50118.1936</v>
       </c>
       <c r="I7" s="1">
-        <v>8483.7302</v>
+        <v>8311.953600000001</v>
       </c>
       <c r="J7" s="1">
-        <v>58602.0286</v>
+        <v>58430.1472</v>
       </c>
       <c r="K7" s="1">
-        <v>42275.2767</v>
+        <v>42448.5734</v>
       </c>
       <c r="L7" s="1">
-        <v>12.4004</v>
+        <v>12.4264</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -1754,10 +1754,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-9881.7016</v>
+        <v>-9921.477500000001</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.002</v>
+        <v>0.0016</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1768,49 +1768,49 @@
         <v>13.8109</v>
       </c>
       <c r="C8" s="1">
-        <v>13.8109</v>
+        <v>13.7833</v>
       </c>
       <c r="D8" s="1">
-        <v>13.8109</v>
+        <v>13.8386</v>
       </c>
       <c r="E8" s="1">
-        <v>4081.355</v>
+        <v>4089.5335</v>
       </c>
       <c r="F8" s="1">
-        <v>987.1054</v>
+        <v>989.0761</v>
       </c>
       <c r="G8" s="1">
         <v>70000</v>
       </c>
       <c r="H8" s="1">
-        <v>56367.1859</v>
+        <v>56367.2674</v>
       </c>
       <c r="I8" s="1">
-        <v>8602.0286</v>
+        <v>8390.4761</v>
       </c>
       <c r="J8" s="1">
-        <v>64969.2145</v>
+        <v>64757.7435</v>
       </c>
       <c r="K8" s="1">
-        <v>52156.9783</v>
+        <v>52370.0509</v>
       </c>
       <c r="L8" s="1">
-        <v>12.7793</v>
+        <v>12.8059</v>
       </c>
       <c r="M8" s="1">
         <v>1</v>
       </c>
       <c r="N8" s="1">
-        <v>3068.2585</v>
+        <v>3074.4005</v>
       </c>
       <c r="O8" s="1">
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-10564.5556</v>
+        <v>-10613.028</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.053</v>
+        <v>-0.0537</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1821,34 +1821,34 @@
         <v>13.9322</v>
       </c>
       <c r="C9" s="1">
-        <v>13.9322</v>
+        <v>13.9043</v>
       </c>
       <c r="D9" s="1">
-        <v>13.9322</v>
+        <v>13.9601</v>
       </c>
       <c r="E9" s="1">
-        <v>5068.4604</v>
+        <v>5078.6096</v>
       </c>
       <c r="F9" s="1">
-        <v>673.6334000000001</v>
+        <v>675.0062</v>
       </c>
       <c r="G9" s="1">
         <v>80000</v>
       </c>
       <c r="H9" s="1">
-        <v>70614.8042</v>
+        <v>70614.51179999999</v>
       </c>
       <c r="I9" s="1">
-        <v>8037.473</v>
+        <v>7777.4481</v>
       </c>
       <c r="J9" s="1">
-        <v>78652.2773</v>
+        <v>78391.9598</v>
       </c>
       <c r="K9" s="1">
-        <v>65789.79240000001</v>
+        <v>66057.4794</v>
       </c>
       <c r="L9" s="1">
-        <v>12.9802</v>
+        <v>13.007</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -1860,10 +1860,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-9385.1958</v>
+        <v>-9423.1536</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0491</v>
+        <v>0.0486</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1874,34 +1874,34 @@
         <v>12.5846</v>
       </c>
       <c r="C10" s="1">
-        <v>12.5846</v>
+        <v>12.5594</v>
       </c>
       <c r="D10" s="1">
-        <v>12.5846</v>
+        <v>12.6098</v>
       </c>
       <c r="E10" s="1">
-        <v>5742.0939</v>
+        <v>5753.6158</v>
       </c>
       <c r="F10" s="1">
-        <v>1409.5041</v>
+        <v>1412.3316</v>
       </c>
       <c r="G10" s="1">
         <v>90000</v>
       </c>
       <c r="H10" s="1">
-        <v>72261.9543</v>
+        <v>72261.9621</v>
       </c>
       <c r="I10" s="1">
-        <v>8652.2773</v>
+        <v>8354.2945</v>
       </c>
       <c r="J10" s="1">
-        <v>80914.2316</v>
+        <v>80616.25659999999</v>
       </c>
       <c r="K10" s="1">
-        <v>75174.9881</v>
+        <v>75480.633</v>
       </c>
       <c r="L10" s="1">
-        <v>13.0919</v>
+        <v>13.1188</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -1913,10 +1913,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-17738.0457</v>
+        <v>-17809.2194</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0873</v>
+        <v>-0.08799999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1927,49 +1927,49 @@
         <v>12.2867</v>
       </c>
       <c r="C11" s="1">
-        <v>12.2867</v>
+        <v>12.2621</v>
       </c>
       <c r="D11" s="1">
-        <v>12.2867</v>
+        <v>12.3113</v>
       </c>
       <c r="E11" s="1">
-        <v>7151.598</v>
+        <v>7165.9474</v>
       </c>
       <c r="F11" s="1">
-        <v>888.2963999999999</v>
+        <v>856.5363</v>
       </c>
       <c r="G11" s="1">
         <v>100000</v>
       </c>
       <c r="H11" s="1">
-        <v>87869.539</v>
+        <v>87869.5638</v>
       </c>
       <c r="I11" s="1">
-        <v>914.2316</v>
+        <v>545.0751</v>
       </c>
       <c r="J11" s="1">
-        <v>88783.7705</v>
+        <v>88414.63890000001</v>
       </c>
       <c r="K11" s="1">
-        <v>92913.0338</v>
+        <v>93289.8524</v>
       </c>
       <c r="L11" s="1">
-        <v>12.9919</v>
+        <v>13.0185</v>
       </c>
       <c r="M11" s="1">
         <v>0.5</v>
       </c>
       <c r="N11" s="1">
-        <v>2583.9422</v>
+        <v>2589.1271</v>
       </c>
       <c r="O11" s="1">
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-8330.2894</v>
+        <v>-7955.948</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0234</v>
+        <v>-0.0243</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1980,34 +1980,34 @@
         <v>13.0645</v>
       </c>
       <c r="C12" s="1">
-        <v>13.0645</v>
+        <v>13.0384</v>
       </c>
       <c r="D12" s="1">
-        <v>13.0645</v>
+        <v>13.0907</v>
       </c>
       <c r="E12" s="1">
-        <v>8039.8944</v>
+        <v>8022.4837</v>
       </c>
       <c r="F12" s="1">
-        <v>379.8691</v>
+        <v>414.1343</v>
       </c>
       <c r="G12" s="1">
         <v>110000</v>
       </c>
       <c r="H12" s="1">
-        <v>105037.2004</v>
+        <v>104600.3514</v>
       </c>
       <c r="I12" s="1">
-        <v>2583.9422</v>
+        <v>2589.1271</v>
       </c>
       <c r="J12" s="1">
-        <v>107621.1426</v>
+        <v>107189.4785</v>
       </c>
       <c r="K12" s="1">
-        <v>103827.2654</v>
+        <v>103834.9275</v>
       </c>
       <c r="L12" s="1">
-        <v>12.914</v>
+        <v>12.943</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -2019,10 +2019,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-4962.7996</v>
+        <v>-5421.3078</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0895</v>
+        <v>0.0892</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2033,34 +2033,34 @@
         <v>13.8083</v>
       </c>
       <c r="C13" s="1">
-        <v>13.8083</v>
+        <v>13.7807</v>
       </c>
       <c r="D13" s="1">
-        <v>13.8083</v>
+        <v>13.836</v>
       </c>
       <c r="E13" s="1">
-        <v>8419.763499999999</v>
+        <v>8436.618</v>
       </c>
       <c r="F13" s="1">
-        <v>270.6618</v>
+        <v>271.2125</v>
       </c>
       <c r="G13" s="1">
         <v>120000</v>
       </c>
       <c r="H13" s="1">
-        <v>116262.6201</v>
+        <v>116262.5015</v>
       </c>
       <c r="I13" s="1">
-        <v>7621.1426</v>
+        <v>7167.8193</v>
       </c>
       <c r="J13" s="1">
-        <v>123883.7627</v>
+        <v>123430.3209</v>
       </c>
       <c r="K13" s="1">
-        <v>108790.065</v>
+        <v>109256.2352</v>
       </c>
       <c r="L13" s="1">
-        <v>12.9208</v>
+        <v>12.9502</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -2072,10 +2072,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-3737.3799</v>
+        <v>-3752.4965</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0532</v>
+        <v>0.0533</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2086,49 +2086,49 @@
         <v>13.5636</v>
       </c>
       <c r="C14" s="1">
-        <v>13.5636</v>
+        <v>13.5365</v>
       </c>
       <c r="D14" s="1">
-        <v>13.5636</v>
+        <v>13.5908</v>
       </c>
       <c r="E14" s="1">
-        <v>8690.425300000001</v>
+        <v>8707.8305</v>
       </c>
       <c r="F14" s="1">
-        <v>-8690.425300000001</v>
+        <v>-8707.8305</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>117873.4529</v>
+        <v>117873.5478</v>
       </c>
       <c r="I14" s="1">
-        <v>13883.7627</v>
+        <v>13415.3228</v>
       </c>
       <c r="J14" s="1">
-        <v>131757.2156</v>
+        <v>131288.8706</v>
       </c>
       <c r="K14" s="1">
-        <v>112527.4449</v>
+        <v>113008.7318</v>
       </c>
       <c r="L14" s="1">
-        <v>12.9484</v>
+        <v>12.9778</v>
       </c>
       <c r="M14" s="1">
         <v>0.5</v>
       </c>
       <c r="N14" s="1">
-        <v>3788.8936</v>
+        <v>3796.4781</v>
       </c>
       <c r="O14" s="1">
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>121662.3465</v>
+        <v>121670.0259</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0159</v>
+        <v>-0.016</v>
       </c>
     </row>
   </sheetData>
@@ -2152,7 +2152,7 @@
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
     <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
     <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
     <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
     <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
@@ -2224,16 +2224,16 @@
         <v>10.8505</v>
       </c>
       <c r="C2" s="1">
-        <v>10.8505</v>
+        <v>10.8288</v>
       </c>
       <c r="D2" s="1">
-        <v>10.8505</v>
+        <v>10.8723</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>921.6165</v>
+        <v>919.7686</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -2271,34 +2271,34 @@
         <v>11.8576</v>
       </c>
       <c r="C3" s="1">
-        <v>11.8576</v>
+        <v>11.8339</v>
       </c>
       <c r="D3" s="1">
-        <v>11.8576</v>
+        <v>11.8814</v>
       </c>
       <c r="E3" s="1">
-        <v>921.6165</v>
+        <v>919.7686</v>
       </c>
       <c r="F3" s="1">
-        <v>769.2821</v>
+        <v>774.5165</v>
       </c>
       <c r="G3" s="1">
         <v>20050</v>
       </c>
       <c r="H3" s="1">
-        <v>10928.16</v>
+        <v>10884.4495</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10928.16</v>
+        <v>10884.4495</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>10.8505</v>
+        <v>10.8723</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -2310,10 +2310,10 @@
         <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>-9121.84</v>
+        <v>-9202.340099999999</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.09279999999999999</v>
+        <v>0.08840000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2324,34 +2324,34 @@
         <v>12.5699</v>
       </c>
       <c r="C4" s="1">
-        <v>12.5699</v>
+        <v>12.5448</v>
       </c>
       <c r="D4" s="1">
-        <v>12.5699</v>
+        <v>12.5951</v>
       </c>
       <c r="E4" s="1">
-        <v>1690.8987</v>
+        <v>1694.2851</v>
       </c>
       <c r="F4" s="1">
-        <v>707.7083</v>
+        <v>709.1211</v>
       </c>
       <c r="G4" s="1">
         <v>30150.25</v>
       </c>
       <c r="H4" s="1">
-        <v>21254.4271</v>
+        <v>21254.4673</v>
       </c>
       <c r="I4" s="1">
-        <v>878.16</v>
+        <v>797.6599</v>
       </c>
       <c r="J4" s="1">
-        <v>22132.5871</v>
+        <v>22052.1272</v>
       </c>
       <c r="K4" s="1">
-        <v>19121.84</v>
+        <v>19202.3401</v>
       </c>
       <c r="L4" s="1">
-        <v>11.3087</v>
+        <v>11.3336</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -2363,10 +2363,10 @@
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-8895.822899999999</v>
+        <v>-8931.451499999999</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0576</v>
+        <v>0.0559</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2377,49 +2377,49 @@
         <v>13.5994</v>
       </c>
       <c r="C5" s="1">
-        <v>13.5994</v>
+        <v>13.5722</v>
       </c>
       <c r="D5" s="1">
-        <v>13.5994</v>
+        <v>13.6266</v>
       </c>
       <c r="E5" s="1">
-        <v>2398.607</v>
+        <v>2403.4062</v>
       </c>
       <c r="F5" s="1">
-        <v>564.8327</v>
+        <v>565.9725</v>
       </c>
       <c r="G5" s="1">
         <v>40301.0012</v>
       </c>
       <c r="H5" s="1">
-        <v>32619.6159</v>
+        <v>32619.5095</v>
       </c>
       <c r="I5" s="1">
-        <v>1982.3371</v>
+        <v>1866.2084</v>
       </c>
       <c r="J5" s="1">
-        <v>34601.953</v>
+        <v>34485.7179</v>
       </c>
       <c r="K5" s="1">
-        <v>28017.6629</v>
+        <v>28133.7916</v>
       </c>
       <c r="L5" s="1">
-        <v>11.6808</v>
+        <v>11.7058</v>
       </c>
       <c r="M5" s="1">
         <v>0.5</v>
       </c>
       <c r="N5" s="1">
-        <v>760.9044</v>
+        <v>762.4283</v>
       </c>
       <c r="O5" s="1">
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-6920.481</v>
+        <v>-6949.8524</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.07679999999999999</v>
+        <v>0.0759</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2430,34 +2430,34 @@
         <v>14.6663</v>
       </c>
       <c r="C6" s="1">
-        <v>14.6663</v>
+        <v>14.637</v>
       </c>
       <c r="D6" s="1">
-        <v>14.6663</v>
+        <v>14.6957</v>
       </c>
       <c r="E6" s="1">
-        <v>2963.4397</v>
+        <v>2969.3787</v>
       </c>
       <c r="F6" s="1">
-        <v>479.9991</v>
+        <v>480.9531</v>
       </c>
       <c r="G6" s="1">
         <v>50502.5063</v>
       </c>
       <c r="H6" s="1">
-        <v>43462.695</v>
+        <v>43462.7957</v>
       </c>
       <c r="I6" s="1">
-        <v>5061.8562</v>
+        <v>4916.356</v>
       </c>
       <c r="J6" s="1">
-        <v>48524.5512</v>
+        <v>48379.1517</v>
       </c>
       <c r="K6" s="1">
-        <v>35699.0482</v>
+        <v>35846.0722</v>
       </c>
       <c r="L6" s="1">
-        <v>12.0465</v>
+        <v>12.0719</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -2469,10 +2469,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-7039.8112</v>
+        <v>-7067.9425</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.08790000000000001</v>
+        <v>0.08749999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2483,34 +2483,34 @@
         <v>14.701</v>
       </c>
       <c r="C7" s="1">
-        <v>14.701</v>
+        <v>14.6716</v>
       </c>
       <c r="D7" s="1">
-        <v>14.701</v>
+        <v>14.7305</v>
       </c>
       <c r="E7" s="1">
-        <v>3443.4388</v>
+        <v>3450.3318</v>
       </c>
       <c r="F7" s="1">
-        <v>689.2746</v>
+        <v>690.663</v>
       </c>
       <c r="G7" s="1">
         <v>60755.0188</v>
       </c>
       <c r="H7" s="1">
-        <v>50621.9936</v>
+        <v>50621.8877</v>
       </c>
       <c r="I7" s="1">
-        <v>8022.0449</v>
+        <v>7848.4135</v>
       </c>
       <c r="J7" s="1">
-        <v>58644.0385</v>
+        <v>58470.3012</v>
       </c>
       <c r="K7" s="1">
-        <v>42738.8595</v>
+        <v>42914.0148</v>
       </c>
       <c r="L7" s="1">
-        <v>12.4117</v>
+        <v>12.4376</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -2522,10 +2522,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-10133.0252</v>
+        <v>-10173.8111</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.002</v>
+        <v>0.0016</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2536,49 +2536,49 @@
         <v>13.8109</v>
       </c>
       <c r="C8" s="1">
-        <v>13.8109</v>
+        <v>13.7833</v>
       </c>
       <c r="D8" s="1">
-        <v>13.8109</v>
+        <v>13.8386</v>
       </c>
       <c r="E8" s="1">
-        <v>4132.7133</v>
+        <v>4140.9948</v>
       </c>
       <c r="F8" s="1">
-        <v>1012.4107</v>
+        <v>1014.432</v>
       </c>
       <c r="G8" s="1">
         <v>71058.7939</v>
       </c>
       <c r="H8" s="1">
-        <v>57076.4906</v>
+        <v>57076.5731</v>
       </c>
       <c r="I8" s="1">
-        <v>7889.0197</v>
+        <v>7674.6024</v>
       </c>
       <c r="J8" s="1">
-        <v>64965.5104</v>
+        <v>64751.1755</v>
       </c>
       <c r="K8" s="1">
-        <v>52871.8847</v>
+        <v>53087.8259</v>
       </c>
       <c r="L8" s="1">
-        <v>12.7935</v>
+        <v>12.8201</v>
       </c>
       <c r="M8" s="1">
         <v>1</v>
       </c>
       <c r="N8" s="1">
-        <v>3099.0949</v>
+        <v>3105.2986</v>
       </c>
       <c r="O8" s="1">
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-10883.2083</v>
+        <v>-10933.0202</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0536</v>
+        <v>-0.0543</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2589,34 +2589,34 @@
         <v>13.9322</v>
       </c>
       <c r="C9" s="1">
-        <v>13.9322</v>
+        <v>13.9043</v>
       </c>
       <c r="D9" s="1">
-        <v>13.9322</v>
+        <v>13.9601</v>
       </c>
       <c r="E9" s="1">
-        <v>5145.1241</v>
+        <v>5155.4268</v>
       </c>
       <c r="F9" s="1">
-        <v>698.4675999999999</v>
+        <v>699.8905</v>
       </c>
       <c r="G9" s="1">
         <v>81414.0879</v>
       </c>
       <c r="H9" s="1">
-        <v>71682.8974</v>
+        <v>71682.6005</v>
       </c>
       <c r="I9" s="1">
-        <v>7005.8114</v>
+        <v>6741.5822</v>
       </c>
       <c r="J9" s="1">
-        <v>78688.70879999999</v>
+        <v>78424.1827</v>
       </c>
       <c r="K9" s="1">
-        <v>66854.1879</v>
+        <v>67126.1447</v>
       </c>
       <c r="L9" s="1">
-        <v>12.9937</v>
+        <v>13.0205</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -2628,10 +2628,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-9731.190399999999</v>
+        <v>-9770.5412</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0497</v>
+        <v>0.0491</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2642,34 +2642,34 @@
         <v>12.5846</v>
       </c>
       <c r="C10" s="1">
-        <v>12.5846</v>
+        <v>12.5594</v>
       </c>
       <c r="D10" s="1">
-        <v>12.5846</v>
+        <v>12.6098</v>
       </c>
       <c r="E10" s="1">
-        <v>5843.5917</v>
+        <v>5855.3173</v>
       </c>
       <c r="F10" s="1">
-        <v>1372.6794</v>
+        <v>1345.8612</v>
       </c>
       <c r="G10" s="1">
         <v>91821.1583</v>
       </c>
       <c r="H10" s="1">
-        <v>73539.2637</v>
+        <v>73539.2717</v>
       </c>
       <c r="I10" s="1">
-        <v>7274.621</v>
+        <v>6971.041</v>
       </c>
       <c r="J10" s="1">
-        <v>80813.8847</v>
+        <v>80510.3126</v>
       </c>
       <c r="K10" s="1">
-        <v>76585.3783</v>
+        <v>76896.6859</v>
       </c>
       <c r="L10" s="1">
-        <v>13.1059</v>
+        <v>13.1328</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -2681,10 +2681,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-17274.621</v>
+        <v>-16971.041</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0888</v>
+        <v>-0.0895</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2695,49 +2695,49 @@
         <v>12.2867</v>
       </c>
       <c r="C11" s="1">
-        <v>12.2867</v>
+        <v>12.2621</v>
       </c>
       <c r="D11" s="1">
-        <v>12.2867</v>
+        <v>12.3113</v>
       </c>
       <c r="E11" s="1">
-        <v>7216.2711</v>
+        <v>7201.1785</v>
       </c>
       <c r="F11" s="1">
-        <v>813.8882</v>
+        <v>812.2619</v>
       </c>
       <c r="G11" s="1">
         <v>102280.2641</v>
       </c>
       <c r="H11" s="1">
-        <v>88664.1575</v>
+        <v>88301.5708</v>
       </c>
       <c r="I11" s="1">
         <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>88664.1575</v>
+        <v>88301.5708</v>
       </c>
       <c r="K11" s="1">
-        <v>93859.9993</v>
+        <v>93867.72689999999</v>
       </c>
       <c r="L11" s="1">
-        <v>13.0067</v>
+        <v>13.0351</v>
       </c>
       <c r="M11" s="1">
         <v>0.5</v>
       </c>
       <c r="N11" s="1">
-        <v>2629.6163</v>
+        <v>2634.8928</v>
       </c>
       <c r="O11" s="1">
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-7370.3837</v>
+        <v>-7365.1072</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0237</v>
+        <v>-0.0244</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2748,34 +2748,34 @@
         <v>13.0645</v>
       </c>
       <c r="C12" s="1">
-        <v>13.0645</v>
+        <v>13.0384</v>
       </c>
       <c r="D12" s="1">
-        <v>13.0645</v>
+        <v>13.0907</v>
       </c>
       <c r="E12" s="1">
-        <v>8030.1592</v>
+        <v>8013.4404</v>
       </c>
       <c r="F12" s="1">
-        <v>603.2875</v>
+        <v>637.2886</v>
       </c>
       <c r="G12" s="1">
         <v>112791.6654</v>
       </c>
       <c r="H12" s="1">
-        <v>104910.0154</v>
+        <v>104482.4413</v>
       </c>
       <c r="I12" s="1">
-        <v>2629.6163</v>
+        <v>2634.8928</v>
       </c>
       <c r="J12" s="1">
-        <v>107539.6316</v>
+        <v>107117.3341</v>
       </c>
       <c r="K12" s="1">
-        <v>103859.9993</v>
+        <v>103867.7269</v>
       </c>
       <c r="L12" s="1">
-        <v>12.9337</v>
+        <v>12.9617</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -2787,10 +2787,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-7881.65</v>
+        <v>-8342.5543</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.09</v>
+        <v>0.0897</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2801,34 +2801,34 @@
         <v>13.8083</v>
       </c>
       <c r="C13" s="1">
-        <v>13.8083</v>
+        <v>13.7807</v>
       </c>
       <c r="D13" s="1">
-        <v>13.8083</v>
+        <v>13.836</v>
       </c>
       <c r="E13" s="1">
-        <v>8633.4468</v>
+        <v>8650.728999999999</v>
       </c>
       <c r="F13" s="1">
-        <v>299.9935</v>
+        <v>300.6032</v>
       </c>
       <c r="G13" s="1">
         <v>123355.6237</v>
       </c>
       <c r="H13" s="1">
-        <v>119213.2231</v>
+        <v>119213.1016</v>
       </c>
       <c r="I13" s="1">
-        <v>4747.9662</v>
+        <v>4292.3385</v>
       </c>
       <c r="J13" s="1">
-        <v>123961.1894</v>
+        <v>123505.4401</v>
       </c>
       <c r="K13" s="1">
-        <v>111741.6493</v>
+        <v>112210.2811</v>
       </c>
       <c r="L13" s="1">
-        <v>12.9429</v>
+        <v>12.9712</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -2840,10 +2840,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-4142.4006</v>
+        <v>-4159.1455</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0546</v>
+        <v>0.0545</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2854,49 +2854,49 @@
         <v>13.5636</v>
       </c>
       <c r="C14" s="1">
-        <v>13.5636</v>
+        <v>13.5365</v>
       </c>
       <c r="D14" s="1">
-        <v>13.5636</v>
+        <v>13.5908</v>
       </c>
       <c r="E14" s="1">
-        <v>8933.4403</v>
+        <v>8951.332200000001</v>
       </c>
       <c r="F14" s="1">
-        <v>-8933.4403</v>
+        <v>-8951.332200000001</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>121169.6109</v>
+        <v>121169.7084</v>
       </c>
       <c r="I14" s="1">
-        <v>10605.5656</v>
+        <v>10133.193</v>
       </c>
       <c r="J14" s="1">
-        <v>131775.1765</v>
+        <v>131302.9014</v>
       </c>
       <c r="K14" s="1">
-        <v>115884.0499</v>
+        <v>116369.4267</v>
       </c>
       <c r="L14" s="1">
-        <v>12.9719</v>
+        <v>13.0002</v>
       </c>
       <c r="M14" s="1">
         <v>0.5</v>
       </c>
       <c r="N14" s="1">
-        <v>3885.051</v>
+        <v>3892.8281</v>
       </c>
       <c r="O14" s="1">
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>125054.6619</v>
+        <v>125062.5365</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0163</v>
+        <v>-0.0165</v>
       </c>
     </row>
   </sheetData>
@@ -2992,16 +2992,16 @@
         <v>10.8505</v>
       </c>
       <c r="C2" s="1">
-        <v>10.8505</v>
+        <v>10.8288</v>
       </c>
       <c r="D2" s="1">
-        <v>10.8505</v>
+        <v>10.8723</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>921.6165</v>
+        <v>919.7686</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -3039,34 +3039,34 @@
         <v>11.8576</v>
       </c>
       <c r="C3" s="1">
-        <v>11.8576</v>
+        <v>11.8339</v>
       </c>
       <c r="D3" s="1">
-        <v>11.8576</v>
+        <v>11.8814</v>
       </c>
       <c r="E3" s="1">
-        <v>921.6165</v>
+        <v>919.7686</v>
       </c>
       <c r="F3" s="1">
-        <v>773.4989</v>
+        <v>778.7415999999999</v>
       </c>
       <c r="G3" s="1">
         <v>20100</v>
       </c>
       <c r="H3" s="1">
-        <v>10928.16</v>
+        <v>10884.4495</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10928.16</v>
+        <v>10884.4495</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>10.8505</v>
+        <v>10.8723</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -3078,10 +3078,10 @@
         <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>-9171.84</v>
+        <v>-9252.540800000001</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.09279999999999999</v>
+        <v>0.08840000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3092,34 +3092,34 @@
         <v>12.5699</v>
       </c>
       <c r="C4" s="1">
-        <v>12.5699</v>
+        <v>12.5448</v>
       </c>
       <c r="D4" s="1">
-        <v>12.5699</v>
+        <v>12.5951</v>
       </c>
       <c r="E4" s="1">
-        <v>1695.1154</v>
+        <v>1698.5102</v>
       </c>
       <c r="F4" s="1">
-        <v>715.4846</v>
+        <v>716.9129</v>
       </c>
       <c r="G4" s="1">
         <v>30301</v>
       </c>
       <c r="H4" s="1">
-        <v>21307.4307</v>
+        <v>21307.4709</v>
       </c>
       <c r="I4" s="1">
-        <v>828.16</v>
+        <v>747.4592</v>
       </c>
       <c r="J4" s="1">
-        <v>22135.5907</v>
+        <v>22054.9302</v>
       </c>
       <c r="K4" s="1">
-        <v>19171.84</v>
+        <v>19252.5408</v>
       </c>
       <c r="L4" s="1">
-        <v>11.3101</v>
+        <v>11.335</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -3131,10 +3131,10 @@
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-8993.569299999999</v>
+        <v>-9029.5898</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0577</v>
+        <v>0.056</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3145,49 +3145,49 @@
         <v>13.5994</v>
       </c>
       <c r="C5" s="1">
-        <v>13.5994</v>
+        <v>13.5722</v>
       </c>
       <c r="D5" s="1">
-        <v>13.5994</v>
+        <v>13.6266</v>
       </c>
       <c r="E5" s="1">
-        <v>2410.5999</v>
+        <v>2415.4231</v>
       </c>
       <c r="F5" s="1">
-        <v>575.1208</v>
+        <v>576.2812</v>
       </c>
       <c r="G5" s="1">
         <v>40604.01</v>
       </c>
       <c r="H5" s="1">
-        <v>32782.7126</v>
+        <v>32782.6057</v>
       </c>
       <c r="I5" s="1">
-        <v>1834.5907</v>
+        <v>1717.8694</v>
       </c>
       <c r="J5" s="1">
-        <v>34617.3033</v>
+        <v>34500.4752</v>
       </c>
       <c r="K5" s="1">
-        <v>28165.4093</v>
+        <v>28282.1306</v>
       </c>
       <c r="L5" s="1">
-        <v>11.684</v>
+        <v>11.709</v>
       </c>
       <c r="M5" s="1">
         <v>0.5</v>
       </c>
       <c r="N5" s="1">
-        <v>762.8019</v>
+        <v>764.3296</v>
       </c>
       <c r="O5" s="1">
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-7058.4955</v>
+        <v>-7088.4244</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0772</v>
+        <v>0.07630000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3198,34 +3198,34 @@
         <v>14.6663</v>
       </c>
       <c r="C6" s="1">
-        <v>14.6663</v>
+        <v>14.637</v>
       </c>
       <c r="D6" s="1">
-        <v>14.6663</v>
+        <v>14.6957</v>
       </c>
       <c r="E6" s="1">
-        <v>2985.7207</v>
+        <v>2991.7044</v>
       </c>
       <c r="F6" s="1">
-        <v>492.3242</v>
+        <v>493.3028</v>
       </c>
       <c r="G6" s="1">
         <v>51010.0501</v>
       </c>
       <c r="H6" s="1">
-        <v>43789.4754</v>
+        <v>43789.5768</v>
       </c>
       <c r="I6" s="1">
-        <v>4776.0952</v>
+        <v>4629.445</v>
       </c>
       <c r="J6" s="1">
-        <v>48565.5706</v>
+        <v>48419.0219</v>
       </c>
       <c r="K6" s="1">
-        <v>35986.7067</v>
+        <v>36134.8845</v>
       </c>
       <c r="L6" s="1">
-        <v>12.0529</v>
+        <v>12.0784</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -3237,10 +3237,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-7220.5747</v>
+        <v>-7249.4302</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0885</v>
+        <v>0.0881</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3251,34 +3251,34 @@
         <v>14.701</v>
       </c>
       <c r="C7" s="1">
-        <v>14.701</v>
+        <v>14.6716</v>
       </c>
       <c r="D7" s="1">
-        <v>14.701</v>
+        <v>14.7305</v>
       </c>
       <c r="E7" s="1">
-        <v>3478.0449</v>
+        <v>3485.0072</v>
       </c>
       <c r="F7" s="1">
-        <v>706.7147</v>
+        <v>708.1381</v>
       </c>
       <c r="G7" s="1">
         <v>61520.1506</v>
       </c>
       <c r="H7" s="1">
-        <v>51130.7383</v>
+        <v>51130.6313</v>
       </c>
       <c r="I7" s="1">
-        <v>7555.5205</v>
+        <v>7380.0149</v>
       </c>
       <c r="J7" s="1">
-        <v>58686.2588</v>
+        <v>58510.6462</v>
       </c>
       <c r="K7" s="1">
-        <v>43207.2814</v>
+        <v>43384.3147</v>
       </c>
       <c r="L7" s="1">
-        <v>12.4229</v>
+        <v>12.4488</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -3290,10 +3290,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-10389.4123</v>
+        <v>-10431.2286</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0021</v>
+        <v>0.0016</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3304,49 +3304,49 @@
         <v>13.8109</v>
       </c>
       <c r="C8" s="1">
-        <v>13.8109</v>
+        <v>13.7833</v>
       </c>
       <c r="D8" s="1">
-        <v>13.8109</v>
+        <v>13.8386</v>
       </c>
       <c r="E8" s="1">
-        <v>4184.7596</v>
+        <v>4193.1453</v>
       </c>
       <c r="F8" s="1">
-        <v>1038.3144</v>
+        <v>1040.3875</v>
       </c>
       <c r="G8" s="1">
         <v>72135.3521</v>
       </c>
       <c r="H8" s="1">
-        <v>57795.2961</v>
+        <v>57795.3796</v>
       </c>
       <c r="I8" s="1">
-        <v>7166.1082</v>
+        <v>6948.7863</v>
       </c>
       <c r="J8" s="1">
-        <v>64961.4043</v>
+        <v>64744.1659</v>
       </c>
       <c r="K8" s="1">
-        <v>53596.6937</v>
+        <v>53815.5433</v>
       </c>
       <c r="L8" s="1">
-        <v>12.8076</v>
+        <v>12.8342</v>
       </c>
       <c r="M8" s="1">
         <v>1</v>
       </c>
       <c r="N8" s="1">
-        <v>3130.2404</v>
+        <v>3136.5065</v>
       </c>
       <c r="O8" s="1">
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-11209.8156</v>
+        <v>-11260.9994</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0542</v>
+        <v>-0.055</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3357,34 +3357,34 @@
         <v>13.9322</v>
       </c>
       <c r="C9" s="1">
-        <v>13.9322</v>
+        <v>13.9043</v>
       </c>
       <c r="D9" s="1">
-        <v>13.9322</v>
+        <v>13.9601</v>
       </c>
       <c r="E9" s="1">
-        <v>5223.074</v>
+        <v>5233.5328</v>
       </c>
       <c r="F9" s="1">
-        <v>724.0633</v>
+        <v>725.5379</v>
       </c>
       <c r="G9" s="1">
         <v>82856.7056</v>
       </c>
       <c r="H9" s="1">
-        <v>72768.91099999999</v>
+        <v>72768.6096</v>
       </c>
       <c r="I9" s="1">
-        <v>5956.2926</v>
+        <v>5687.7869</v>
       </c>
       <c r="J9" s="1">
-        <v>78725.20359999999</v>
+        <v>78456.3964</v>
       </c>
       <c r="K9" s="1">
-        <v>67936.74980000001</v>
+        <v>68213.04919999999</v>
       </c>
       <c r="L9" s="1">
-        <v>13.007</v>
+        <v>13.0338</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -3396,10 +3396,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-10087.7947</v>
+        <v>-10128.5811</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0502</v>
+        <v>0.0497</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3410,34 +3410,34 @@
         <v>12.5846</v>
       </c>
       <c r="C10" s="1">
-        <v>12.5846</v>
+        <v>12.5594</v>
       </c>
       <c r="D10" s="1">
-        <v>12.5846</v>
+        <v>12.6098</v>
       </c>
       <c r="E10" s="1">
-        <v>5947.1373</v>
+        <v>5959.0706</v>
       </c>
       <c r="F10" s="1">
-        <v>1260.9458</v>
+        <v>1233.8979</v>
       </c>
       <c r="G10" s="1">
         <v>93685.2727</v>
       </c>
       <c r="H10" s="1">
-        <v>74842.3435</v>
+        <v>74842.35159999999</v>
       </c>
       <c r="I10" s="1">
-        <v>5868.4979</v>
+        <v>5559.2058</v>
       </c>
       <c r="J10" s="1">
-        <v>80710.8414</v>
+        <v>80401.5573</v>
       </c>
       <c r="K10" s="1">
-        <v>78024.5444</v>
+        <v>78341.6303</v>
       </c>
       <c r="L10" s="1">
-        <v>13.1197</v>
+        <v>13.1466</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -3449,10 +3449,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-15868.4979</v>
+        <v>-15559.2058</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.09030000000000001</v>
+        <v>-0.0911</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3463,49 +3463,49 @@
         <v>12.2867</v>
       </c>
       <c r="C11" s="1">
-        <v>12.2867</v>
+        <v>12.2621</v>
       </c>
       <c r="D11" s="1">
-        <v>12.2867</v>
+        <v>12.3113</v>
       </c>
       <c r="E11" s="1">
-        <v>7208.083</v>
+        <v>7192.9685</v>
       </c>
       <c r="F11" s="1">
-        <v>813.8882</v>
+        <v>812.2619</v>
       </c>
       <c r="G11" s="1">
         <v>104622.1254</v>
       </c>
       <c r="H11" s="1">
-        <v>88563.55349999999</v>
+        <v>88200.8993</v>
       </c>
       <c r="I11" s="1">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>88563.55349999999</v>
+        <v>88200.8993</v>
       </c>
       <c r="K11" s="1">
-        <v>93893.0423</v>
+        <v>93900.8361</v>
       </c>
       <c r="L11" s="1">
-        <v>13.0261</v>
+        <v>13.0545</v>
       </c>
       <c r="M11" s="1">
         <v>0.5</v>
       </c>
       <c r="N11" s="1">
-        <v>2676.2118</v>
+        <v>2681.5818</v>
       </c>
       <c r="O11" s="1">
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-7323.7882</v>
+        <v>-7318.4182</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0237</v>
+        <v>-0.0243</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3516,34 +3516,34 @@
         <v>13.0645</v>
       </c>
       <c r="C12" s="1">
-        <v>13.0645</v>
+        <v>13.0384</v>
       </c>
       <c r="D12" s="1">
-        <v>13.0645</v>
+        <v>13.0907</v>
       </c>
       <c r="E12" s="1">
-        <v>8021.9712</v>
+        <v>8005.2304</v>
       </c>
       <c r="F12" s="1">
-        <v>831.6663</v>
+        <v>866.1301</v>
       </c>
       <c r="G12" s="1">
         <v>115668.3467</v>
       </c>
       <c r="H12" s="1">
-        <v>104803.0427</v>
+        <v>104375.3964</v>
       </c>
       <c r="I12" s="1">
-        <v>2676.2118</v>
+        <v>2681.5818</v>
       </c>
       <c r="J12" s="1">
-        <v>107479.2544</v>
+        <v>107056.9782</v>
       </c>
       <c r="K12" s="1">
-        <v>103893.0423</v>
+        <v>103900.8361</v>
       </c>
       <c r="L12" s="1">
-        <v>12.9511</v>
+        <v>12.9791</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -3555,10 +3555,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-10865.304</v>
+        <v>-11338.2488</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0905</v>
+        <v>0.0902</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3569,34 +3569,34 @@
         <v>13.8083</v>
       </c>
       <c r="C13" s="1">
-        <v>13.8083</v>
+        <v>13.7807</v>
       </c>
       <c r="D13" s="1">
-        <v>13.8083</v>
+        <v>13.836</v>
       </c>
       <c r="E13" s="1">
-        <v>8853.637500000001</v>
+        <v>8871.360500000001</v>
       </c>
       <c r="F13" s="1">
-        <v>331.058</v>
+        <v>331.7301</v>
       </c>
       <c r="G13" s="1">
         <v>126825.0301</v>
       </c>
       <c r="H13" s="1">
-        <v>122253.6822</v>
+        <v>122253.5576</v>
       </c>
       <c r="I13" s="1">
-        <v>1810.9078</v>
+        <v>1343.3329</v>
       </c>
       <c r="J13" s="1">
-        <v>124064.59</v>
+        <v>123596.8905</v>
       </c>
       <c r="K13" s="1">
-        <v>114758.3463</v>
+        <v>115239.0849</v>
       </c>
       <c r="L13" s="1">
-        <v>12.9617</v>
+        <v>12.99</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -3608,10 +3608,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-4571.3479</v>
+        <v>-4589.8172</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0561</v>
+        <v>0.0559</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3622,49 +3622,49 @@
         <v>13.5636</v>
       </c>
       <c r="C14" s="1">
-        <v>13.5636</v>
+        <v>13.5365</v>
       </c>
       <c r="D14" s="1">
-        <v>13.5636</v>
+        <v>13.5908</v>
       </c>
       <c r="E14" s="1">
-        <v>9184.695400000001</v>
+        <v>9203.0906</v>
       </c>
       <c r="F14" s="1">
-        <v>-9184.695400000001</v>
+        <v>-9203.0906</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>124577.5352</v>
+        <v>124577.6354</v>
       </c>
       <c r="I14" s="1">
-        <v>7239.5598</v>
+        <v>6753.5157</v>
       </c>
       <c r="J14" s="1">
-        <v>131817.095</v>
+        <v>131331.1511</v>
       </c>
       <c r="K14" s="1">
-        <v>119329.6943</v>
+        <v>119828.9021</v>
       </c>
       <c r="L14" s="1">
-        <v>12.9922</v>
+        <v>13.0205</v>
       </c>
       <c r="M14" s="1">
         <v>0.5</v>
       </c>
       <c r="N14" s="1">
-        <v>3984.1369</v>
+        <v>3992.1122</v>
       </c>
       <c r="O14" s="1">
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>128561.672</v>
+        <v>128569.7476</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0168</v>
+        <v>-0.017</v>
       </c>
     </row>
   </sheetData>
@@ -3760,16 +3760,16 @@
         <v>10.8505</v>
       </c>
       <c r="C2" s="1">
-        <v>10.8505</v>
+        <v>10.8288</v>
       </c>
       <c r="D2" s="1">
-        <v>10.8505</v>
+        <v>10.8723</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>921.6165</v>
+        <v>919.7686</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -3807,34 +3807,34 @@
         <v>11.8576</v>
       </c>
       <c r="C3" s="1">
-        <v>11.8576</v>
+        <v>11.8339</v>
       </c>
       <c r="D3" s="1">
-        <v>11.8576</v>
+        <v>11.8814</v>
       </c>
       <c r="E3" s="1">
-        <v>921.6165</v>
+        <v>919.7686</v>
       </c>
       <c r="F3" s="1">
-        <v>777.7156</v>
+        <v>782.9668</v>
       </c>
       <c r="G3" s="1">
         <v>20150</v>
       </c>
       <c r="H3" s="1">
-        <v>10928.16</v>
+        <v>10884.4495</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>10928.16</v>
+        <v>10884.4495</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>10.8505</v>
+        <v>10.8723</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -3846,10 +3846,10 @@
         <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>-9221.84</v>
+        <v>-9302.741400000001</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.09279999999999999</v>
+        <v>0.08840000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3860,34 +3860,34 @@
         <v>12.5699</v>
       </c>
       <c r="C4" s="1">
-        <v>12.5699</v>
+        <v>12.5448</v>
       </c>
       <c r="D4" s="1">
-        <v>12.5699</v>
+        <v>12.5951</v>
       </c>
       <c r="E4" s="1">
-        <v>1699.3321</v>
+        <v>1702.7354</v>
       </c>
       <c r="F4" s="1">
-        <v>723.3006</v>
+        <v>724.7446</v>
       </c>
       <c r="G4" s="1">
         <v>30452.25</v>
       </c>
       <c r="H4" s="1">
-        <v>21360.4342</v>
+        <v>21360.4746</v>
       </c>
       <c r="I4" s="1">
-        <v>778.16</v>
+        <v>697.2586</v>
       </c>
       <c r="J4" s="1">
-        <v>22138.5942</v>
+        <v>22057.7331</v>
       </c>
       <c r="K4" s="1">
-        <v>19221.84</v>
+        <v>19302.7414</v>
       </c>
       <c r="L4" s="1">
-        <v>11.3114</v>
+        <v>11.3363</v>
       </c>
       <c r="M4" s="1">
         <v>0</v>
@@ -3899,10 +3899,10 @@
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9091.8158</v>
+        <v>-9128.230100000001</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0578</v>
+        <v>0.0562</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3913,49 +3913,49 @@
         <v>13.5994</v>
       </c>
       <c r="C5" s="1">
-        <v>13.5994</v>
+        <v>13.5722</v>
       </c>
       <c r="D5" s="1">
-        <v>13.5994</v>
+        <v>13.6266</v>
       </c>
       <c r="E5" s="1">
-        <v>2422.6326</v>
+        <v>2427.4799</v>
       </c>
       <c r="F5" s="1">
-        <v>585.5173</v>
+        <v>586.6986000000001</v>
       </c>
       <c r="G5" s="1">
         <v>40909.0337</v>
       </c>
       <c r="H5" s="1">
-        <v>32946.3503</v>
+        <v>32946.2429</v>
       </c>
       <c r="I5" s="1">
-        <v>1686.3442</v>
+        <v>1569.0285</v>
       </c>
       <c r="J5" s="1">
-        <v>34632.6945</v>
+        <v>34515.2713</v>
       </c>
       <c r="K5" s="1">
-        <v>28313.6558</v>
+        <v>28430.9715</v>
       </c>
       <c r="L5" s="1">
-        <v>11.6871</v>
+        <v>11.7121</v>
       </c>
       <c r="M5" s="1">
         <v>0.5</v>
       </c>
       <c r="N5" s="1">
-        <v>764.6994</v>
+        <v>766.2309</v>
       </c>
       <c r="O5" s="1">
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-7197.984</v>
+        <v>-7228.4764</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0776</v>
+        <v>0.0767</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3966,34 +3966,34 @@
         <v>14.6663</v>
       </c>
       <c r="C6" s="1">
-        <v>14.6663</v>
+        <v>14.637</v>
       </c>
       <c r="D6" s="1">
-        <v>14.6663</v>
+        <v>14.6957</v>
       </c>
       <c r="E6" s="1">
-        <v>3008.1499</v>
+        <v>3014.1785</v>
       </c>
       <c r="F6" s="1">
-        <v>504.8472</v>
+        <v>505.8508</v>
       </c>
       <c r="G6" s="1">
         <v>51522.6693</v>
       </c>
       <c r="H6" s="1">
-        <v>44118.4289</v>
+        <v>44118.531</v>
       </c>
       <c r="I6" s="1">
-        <v>4488.3602</v>
+        <v>4340.5521</v>
       </c>
       <c r="J6" s="1">
-        <v>48606.7891</v>
+        <v>48459.0831</v>
       </c>
       <c r="K6" s="1">
-        <v>36276.3392</v>
+        <v>36425.6788</v>
       </c>
       <c r="L6" s="1">
-        <v>12.0594</v>
+        <v>12.0848</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -4005,10 +4005,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-7404.2404</v>
+        <v>-7433.8317</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.089</v>
+        <v>0.0886</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -4019,34 +4019,34 @@
         <v>14.701</v>
       </c>
       <c r="C7" s="1">
-        <v>14.701</v>
+        <v>14.6716</v>
       </c>
       <c r="D7" s="1">
-        <v>14.701</v>
+        <v>14.7305</v>
       </c>
       <c r="E7" s="1">
-        <v>3512.9971</v>
+        <v>3520.0293</v>
       </c>
       <c r="F7" s="1">
-        <v>724.5044</v>
+        <v>725.9636</v>
       </c>
       <c r="G7" s="1">
         <v>62295.5093</v>
       </c>
       <c r="H7" s="1">
-        <v>51644.5703</v>
+        <v>51644.4623</v>
       </c>
       <c r="I7" s="1">
-        <v>7084.1198</v>
+        <v>6906.7204</v>
       </c>
       <c r="J7" s="1">
-        <v>58728.6901</v>
+        <v>58551.1827</v>
       </c>
       <c r="K7" s="1">
-        <v>43680.5796</v>
+        <v>43859.5105</v>
       </c>
       <c r="L7" s="1">
-        <v>12.434</v>
+        <v>12.46</v>
       </c>
       <c r="M7" s="1">
         <v>0</v>
@@ -4058,10 +4058,10 @@
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-10650.939</v>
+        <v>-10693.8063</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0021</v>
+        <v>0.0016</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4072,49 +4072,49 @@
         <v>13.8109</v>
       </c>
       <c r="C8" s="1">
-        <v>13.8109</v>
+        <v>13.7833</v>
       </c>
       <c r="D8" s="1">
-        <v>13.8109</v>
+        <v>13.8386</v>
       </c>
       <c r="E8" s="1">
-        <v>4237.5015</v>
+        <v>4245.9929</v>
       </c>
       <c r="F8" s="1">
-        <v>1064.828</v>
+        <v>1066.9541</v>
       </c>
       <c r="G8" s="1">
         <v>73229.94190000001</v>
       </c>
       <c r="H8" s="1">
-        <v>58523.7092</v>
+        <v>58523.7938</v>
       </c>
       <c r="I8" s="1">
-        <v>6433.1808</v>
+        <v>6212.9142</v>
       </c>
       <c r="J8" s="1">
-        <v>64956.89</v>
+        <v>64736.708</v>
       </c>
       <c r="K8" s="1">
-        <v>54331.5186</v>
+        <v>54553.3168</v>
       </c>
       <c r="L8" s="1">
-        <v>12.8216</v>
+        <v>12.8482</v>
       </c>
       <c r="M8" s="1">
         <v>1</v>
       </c>
       <c r="N8" s="1">
-        <v>3161.6974</v>
+        <v>3168.0264</v>
       </c>
       <c r="O8" s="1">
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-11544.5353</v>
+        <v>-11597.1243</v>
       </c>
       <c r="Q8" s="3">
-        <v>-0.0549</v>
+        <v>-0.0556</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -4125,34 +4125,34 @@
         <v>13.9322</v>
       </c>
       <c r="C9" s="1">
-        <v>13.9322</v>
+        <v>13.9043</v>
       </c>
       <c r="D9" s="1">
-        <v>13.9322</v>
+        <v>13.9601</v>
       </c>
       <c r="E9" s="1">
-        <v>5302.3295</v>
+        <v>5312.947</v>
       </c>
       <c r="F9" s="1">
-        <v>750.4397</v>
+        <v>751.9675999999999</v>
       </c>
       <c r="G9" s="1">
         <v>84328.39109999999</v>
       </c>
       <c r="H9" s="1">
-        <v>73873.1145</v>
+        <v>73872.8085</v>
       </c>
       <c r="I9" s="1">
-        <v>4888.6455</v>
+        <v>4615.7899</v>
       </c>
       <c r="J9" s="1">
-        <v>78761.75999999999</v>
+        <v>78488.5984</v>
       </c>
       <c r="K9" s="1">
-        <v>69037.7513</v>
+        <v>69318.46739999999</v>
       </c>
       <c r="L9" s="1">
-        <v>13.0203</v>
+        <v>13.0471</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -4164,10 +4164,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-10455.2766</v>
+        <v>-10497.5423</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0508</v>
+        <v>0.0502</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4178,34 +4178,34 @@
         <v>12.5846</v>
       </c>
       <c r="C10" s="1">
-        <v>12.5846</v>
+        <v>12.5594</v>
       </c>
       <c r="D10" s="1">
-        <v>12.5846</v>
+        <v>12.6098</v>
       </c>
       <c r="E10" s="1">
-        <v>6052.7692</v>
+        <v>6064.9145</v>
       </c>
       <c r="F10" s="1">
-        <v>1146.9072</v>
+        <v>1119.625</v>
       </c>
       <c r="G10" s="1">
         <v>95593.31690000001</v>
       </c>
       <c r="H10" s="1">
-        <v>76171.6793</v>
+        <v>76171.6875</v>
       </c>
       <c r="I10" s="1">
-        <v>4433.3689</v>
+        <v>4118.2475</v>
       </c>
       <c r="J10" s="1">
-        <v>80605.0482</v>
+        <v>80289.935</v>
       </c>
       <c r="K10" s="1">
-        <v>79493.0279</v>
+        <v>79816.0098</v>
       </c>
       <c r="L10" s="1">
-        <v>13.1333</v>
+        <v>13.1603</v>
       </c>
       <c r="M10" s="1">
         <v>0</v>
@@ -4217,10 +4217,10 @@
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-14433.3689</v>
+        <v>-14118.2475</v>
       </c>
       <c r="Q10" s="3">
-        <v>-0.0919</v>
+        <v>-0.0927</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4231,49 +4231,49 @@
         <v>12.2867</v>
       </c>
       <c r="C11" s="1">
-        <v>12.2867</v>
+        <v>12.2621</v>
       </c>
       <c r="D11" s="1">
-        <v>12.2867</v>
+        <v>12.3113</v>
       </c>
       <c r="E11" s="1">
-        <v>7199.6764</v>
+        <v>7184.5395</v>
       </c>
       <c r="F11" s="1">
-        <v>813.8882</v>
+        <v>812.2619</v>
       </c>
       <c r="G11" s="1">
         <v>107027.2167</v>
       </c>
       <c r="H11" s="1">
-        <v>88460.26459999999</v>
+        <v>88097.5423</v>
       </c>
       <c r="I11" s="1">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J11" s="1">
-        <v>88460.26459999999</v>
+        <v>88097.5423</v>
       </c>
       <c r="K11" s="1">
-        <v>93926.3968</v>
+        <v>93934.2573</v>
       </c>
       <c r="L11" s="1">
-        <v>13.0459</v>
+        <v>13.0745</v>
       </c>
       <c r="M11" s="1">
         <v>0.5</v>
       </c>
       <c r="N11" s="1">
-        <v>2723.7461</v>
+        <v>2729.2115</v>
       </c>
       <c r="O11" s="1">
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-7276.2539</v>
+        <v>-7270.7885</v>
       </c>
       <c r="Q11" s="3">
-        <v>-0.0237</v>
+        <v>-0.0243</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4284,34 +4284,34 @@
         <v>13.0645</v>
       </c>
       <c r="C12" s="1">
-        <v>13.0645</v>
+        <v>13.0384</v>
       </c>
       <c r="D12" s="1">
-        <v>13.0645</v>
+        <v>13.0907</v>
       </c>
       <c r="E12" s="1">
-        <v>8013.5646</v>
+        <v>7996.8014</v>
       </c>
       <c r="F12" s="1">
-        <v>973.9176</v>
+        <v>972.3859</v>
       </c>
       <c r="G12" s="1">
         <v>118632.6249</v>
       </c>
       <c r="H12" s="1">
-        <v>104693.2152</v>
+        <v>104265.496</v>
       </c>
       <c r="I12" s="1">
-        <v>2723.7461</v>
+        <v>2729.2115</v>
       </c>
       <c r="J12" s="1">
-        <v>107416.9613</v>
+        <v>106994.7076</v>
       </c>
       <c r="K12" s="1">
-        <v>103926.3968</v>
+        <v>103934.2573</v>
       </c>
       <c r="L12" s="1">
-        <v>12.9688</v>
+        <v>12.997</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -4323,10 +4323,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-12723.7461</v>
+        <v>-12729.2115</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.091</v>
+        <v>0.0907</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4337,34 +4337,34 @@
         <v>13.8083</v>
       </c>
       <c r="C13" s="1">
-        <v>13.8083</v>
+        <v>13.7807</v>
       </c>
       <c r="D13" s="1">
-        <v>13.8083</v>
+        <v>13.836</v>
       </c>
       <c r="E13" s="1">
-        <v>8987.4822</v>
+        <v>8969.1873</v>
       </c>
       <c r="F13" s="1">
-        <v>456.9906</v>
+        <v>494.2009</v>
       </c>
       <c r="G13" s="1">
         <v>130412.1143</v>
       </c>
       <c r="H13" s="1">
-        <v>124101.8506</v>
+        <v>123601.6795</v>
       </c>
       <c r="I13" s="1">
         <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>124101.8506</v>
+        <v>123601.6795</v>
       </c>
       <c r="K13" s="1">
-        <v>116650.143</v>
+        <v>116663.4688</v>
       </c>
       <c r="L13" s="1">
-        <v>12.9792</v>
+        <v>13.0071</v>
       </c>
       <c r="M13" s="1">
         <v>0</v>
@@ -4376,10 +4376,10 @@
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-6310.2638</v>
+        <v>-6837.7641</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0569</v>
+        <v>0.0565</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4390,49 +4390,49 @@
         <v>13.5636</v>
       </c>
       <c r="C14" s="1">
-        <v>13.5636</v>
+        <v>13.5365</v>
       </c>
       <c r="D14" s="1">
-        <v>13.5636</v>
+        <v>13.5908</v>
       </c>
       <c r="E14" s="1">
-        <v>9444.4728</v>
+        <v>9463.388199999999</v>
       </c>
       <c r="F14" s="1">
-        <v>-9444.4728</v>
+        <v>-9463.388199999999</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>128101.0518</v>
+        <v>128101.1549</v>
       </c>
       <c r="I14" s="1">
-        <v>3689.7362</v>
+        <v>3162.2359</v>
       </c>
       <c r="J14" s="1">
-        <v>131790.7881</v>
+        <v>131263.3908</v>
       </c>
       <c r="K14" s="1">
-        <v>122960.4067</v>
+        <v>123501.233</v>
       </c>
       <c r="L14" s="1">
-        <v>13.0193</v>
+        <v>13.0504</v>
       </c>
       <c r="M14" s="1">
         <v>0.5</v>
       </c>
       <c r="N14" s="1">
-        <v>4044.367</v>
+        <v>4036.1343</v>
       </c>
       <c r="O14" s="1">
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>132145.4188</v>
+        <v>132137.2892</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.0172</v>
+        <v>-0.0175</v>
       </c>
     </row>
   </sheetData>
@@ -4453,8 +4453,8 @@
     <col min="3" max="3" width="11.7109375" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" customWidth="1"/>
     <col min="5" max="5" width="11.7109375" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" customWidth="1"/>
+    <col min="7" max="7" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -4490,19 +4490,19 @@
         <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>13.0592</v>
+        <v>13.0854</v>
       </c>
       <c r="D3" s="1">
-        <v>12.9484</v>
+        <v>12.9778</v>
       </c>
       <c r="E3" s="1">
-        <v>12.9719</v>
+        <v>13.0002</v>
       </c>
       <c r="F3" s="1">
-        <v>12.9922</v>
+        <v>13.0205</v>
       </c>
       <c r="G3" s="1">
-        <v>13.0193</v>
+        <v>13.0504</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
@@ -4513,19 +4513,19 @@
         <v>0.246</v>
       </c>
       <c r="C4" s="3">
-        <v>0.342</v>
+        <v>0.3295</v>
       </c>
       <c r="D4" s="3">
-        <v>0.3284</v>
+        <v>0.3174</v>
       </c>
       <c r="E4" s="3">
-        <v>0.3291</v>
+        <v>0.318</v>
       </c>
       <c r="F4" s="3">
-        <v>0.33</v>
+        <v>0.3188</v>
       </c>
       <c r="G4" s="3">
-        <v>0.3304</v>
+        <v>0.3187</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1">
@@ -4536,19 +4536,19 @@
         <v>0.2032</v>
       </c>
       <c r="C5" s="3">
-        <v>0.2146</v>
+        <v>0.2129</v>
       </c>
       <c r="D5" s="3">
-        <v>0.2022</v>
+        <v>0.2011</v>
       </c>
       <c r="E5" s="3">
-        <v>0.2041</v>
+        <v>0.203</v>
       </c>
       <c r="F5" s="3">
-        <v>0.206</v>
+        <v>0.2049</v>
       </c>
       <c r="G5" s="3">
-        <v>0.2079</v>
+        <v>0.2068</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1">
@@ -4559,19 +4559,19 @@
         <v>1.1107</v>
       </c>
       <c r="C6" s="4">
-        <v>1.4992</v>
+        <v>1.4524</v>
       </c>
       <c r="D6" s="4">
-        <v>1.5235</v>
+        <v>1.4773</v>
       </c>
       <c r="E6" s="4">
-        <v>1.5125</v>
+        <v>1.4664</v>
       </c>
       <c r="F6" s="4">
-        <v>1.5031</v>
+        <v>1.4566</v>
       </c>
       <c r="G6" s="4">
-        <v>1.4912</v>
+        <v>1.4433</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1">
@@ -4579,19 +4579,19 @@
         <v>28</v>
       </c>
       <c r="C7" s="3">
-        <v>0.2623</v>
+        <v>0.253</v>
       </c>
       <c r="D7" s="3">
-        <v>0.2719</v>
+        <v>0.2626</v>
       </c>
       <c r="E7" s="3">
-        <v>0.2697</v>
+        <v>0.2606</v>
       </c>
       <c r="F7" s="3">
-        <v>0.2683</v>
+        <v>0.2591</v>
       </c>
       <c r="G7" s="3">
-        <v>0.2654</v>
+        <v>0.2555</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
@@ -4599,19 +4599,19 @@
         <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>11144.7455</v>
+        <v>11122.0155</v>
       </c>
       <c r="D8" s="1">
-        <v>10200.1012</v>
+        <v>10220.5327</v>
       </c>
       <c r="E8" s="1">
-        <v>10374.6666</v>
+        <v>10395.4477</v>
       </c>
       <c r="F8" s="1">
-        <v>10553.391</v>
+        <v>10574.5301</v>
       </c>
       <c r="G8" s="1">
-        <v>10694.51</v>
+        <v>10699.6031</v>
       </c>
     </row>
   </sheetData>

--- a/output/1Y_P15_KFSDIV.xlsx
+++ b/output/1Y_P15_KFSDIV.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="31">
   <si>
     <t>NAV</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>Dividend</t>
+  </si>
+  <si>
+    <t>Wealth/Cost</t>
   </si>
 </sst>
 </file>
@@ -721,7 +724,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>10.8505</v>
@@ -765,7 +768,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>11.8576</v>
@@ -815,7 +818,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>12.5699</v>
@@ -865,7 +868,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>13.5994</v>
@@ -915,7 +918,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>14.6663</v>
@@ -965,7 +968,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>14.701</v>
@@ -1015,7 +1018,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>13.8109</v>
@@ -1065,7 +1068,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>13.9322</v>
@@ -1115,7 +1118,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>12.5846</v>
@@ -1165,7 +1168,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>12.2867</v>
@@ -1215,7 +1218,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>13.0645</v>
@@ -1265,7 +1268,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>13.8083</v>
@@ -1315,7 +1318,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>13.5636</v>
@@ -1450,7 +1453,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>10.8505</v>
@@ -1497,7 +1500,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>11.8576</v>
@@ -1550,7 +1553,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>12.5699</v>
@@ -1603,7 +1606,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>13.5994</v>
@@ -1656,7 +1659,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>14.6663</v>
@@ -1709,7 +1712,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>14.701</v>
@@ -1762,7 +1765,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>13.8109</v>
@@ -1815,7 +1818,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>13.9322</v>
@@ -1868,7 +1871,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>12.5846</v>
@@ -1921,7 +1924,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>12.2867</v>
@@ -1974,7 +1977,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>13.0645</v>
@@ -2027,7 +2030,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>13.8083</v>
@@ -2080,7 +2083,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>13.5636</v>
@@ -2218,7 +2221,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>10.8505</v>
@@ -2265,7 +2268,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>11.8576</v>
@@ -2318,7 +2321,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>12.5699</v>
@@ -2371,7 +2374,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>13.5994</v>
@@ -2424,7 +2427,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>14.6663</v>
@@ -2477,7 +2480,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>14.701</v>
@@ -2530,7 +2533,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>13.8109</v>
@@ -2583,7 +2586,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>13.9322</v>
@@ -2636,7 +2639,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>12.5846</v>
@@ -2689,7 +2692,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>12.2867</v>
@@ -2742,7 +2745,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>13.0645</v>
@@ -2795,7 +2798,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>13.8083</v>
@@ -2848,7 +2851,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>13.5636</v>
@@ -2986,7 +2989,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>10.8505</v>
@@ -3033,7 +3036,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>11.8576</v>
@@ -3086,7 +3089,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>12.5699</v>
@@ -3139,7 +3142,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>13.5994</v>
@@ -3192,7 +3195,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>14.6663</v>
@@ -3245,7 +3248,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>14.701</v>
@@ -3298,7 +3301,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>13.8109</v>
@@ -3351,7 +3354,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>13.9322</v>
@@ -3404,7 +3407,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>12.5846</v>
@@ -3457,7 +3460,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>12.2867</v>
@@ -3510,7 +3513,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>13.0645</v>
@@ -3563,7 +3566,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>13.8083</v>
@@ -3616,7 +3619,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>13.5636</v>
@@ -3754,7 +3757,7 @@
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1">
         <v>10.8505</v>
@@ -3801,7 +3804,7 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1">
         <v>11.8576</v>
@@ -3854,7 +3857,7 @@
     </row>
     <row r="4" spans="1:17">
       <c r="A4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1">
         <v>12.5699</v>
@@ -3907,7 +3910,7 @@
     </row>
     <row r="5" spans="1:17">
       <c r="A5" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1">
         <v>13.5994</v>
@@ -3960,7 +3963,7 @@
     </row>
     <row r="6" spans="1:17">
       <c r="A6" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
         <v>14.6663</v>
@@ -4013,7 +4016,7 @@
     </row>
     <row r="7" spans="1:17">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="1">
         <v>14.701</v>
@@ -4066,7 +4069,7 @@
     </row>
     <row r="8" spans="1:17">
       <c r="A8" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
         <v>13.8109</v>
@@ -4119,7 +4122,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="A9" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>13.9322</v>
@@ -4172,7 +4175,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="A10" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1">
         <v>12.5846</v>
@@ -4225,7 +4228,7 @@
     </row>
     <row r="11" spans="1:17">
       <c r="A11" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="1">
         <v>12.2867</v>
@@ -4278,7 +4281,7 @@
     </row>
     <row r="12" spans="1:17">
       <c r="A12" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1">
         <v>13.0645</v>
@@ -4331,7 +4334,7 @@
     </row>
     <row r="13" spans="1:17">
       <c r="A13" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1">
         <v>13.8083</v>
@@ -4384,7 +4387,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="A14" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="1">
         <v>13.5636</v>
@@ -4442,13 +4445,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" customWidth="1"/>
@@ -4614,6 +4617,26 @@
         <v>12440.2821</v>
       </c>
     </row>
+    <row r="9" spans="1:7" s="4" customFormat="1">
+      <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1.0343</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1.1767</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1.1426</v>
+      </c>
+      <c r="F9" s="4">
+        <v>1.1096</v>
+      </c>
+      <c r="G9" s="4">
+        <v>1.0773</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
